--- a/biology/Microbiologie/Bordetella_parapertussis/Bordetella_parapertussis.xlsx
+++ b/biology/Microbiologie/Bordetella_parapertussis/Bordetella_parapertussis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bordetella parapetussis est un bacille à Gram négatif qui détermine une coqueluche généralement moins sévère que celle déterminée par Bordetella pertussis. Néanmoins, une épidémie de coqueluche typique aux États-Unis en 2014 due à B. parapertussis a montré que la bactérie pouvait déclencher des symptômes aussi sévères que ceux associés à B. pertussis[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bordetella parapetussis est un bacille à Gram négatif qui détermine une coqueluche généralement moins sévère que celle déterminée par Bordetella pertussis. Néanmoins, une épidémie de coqueluche typique aux États-Unis en 2014 due à B. parapertussis a montré que la bactérie pouvait déclencher des symptômes aussi sévères que ceux associés à B. pertussis.
 Elle est de croissance plus rapide que B. pertussis (2 jours) sur milieu Bordet Gengou présentant un halo d'hémolyse net.
 Possédant une uréase (mais moins rapide -en 24 h- que B. bronchiseptica) ainsi qu'une tyrosinase entrainant un brunissement du milieu de Bordet et Gengou. La cytochrome oxydase est négative.
-L'homme et le mouton sont les deux réservoirs connus de B. parapertussis, les deux espèces n'étant pas infectées par les mêmes lignées[2].
+L'homme et le mouton sont les deux réservoirs connus de B. parapertussis, les deux espèces n'étant pas infectées par les mêmes lignées.
 </t>
         </is>
       </c>
